--- a/xlsx/龙雨欢的日报.xlsx
+++ b/xlsx/龙雨欢的日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\webstorm-code\schoolwork\MES制造执行系统\mes-front-end\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8E5AA-0EF0-419E-9EE7-136395A87883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED10E4AA-1C68-4F9E-91DA-6EFFF19D547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>好像知道日报怎么写了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积项目经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发了登录、注册相关以及用户crud相关的API接口，美化登陆注册页面样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,14 +411,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.25" style="1" customWidth="1"/>
@@ -451,7 +463,21 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>44834</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
